--- a/12_Anhang/Vorgangsliste.xlsx
+++ b/12_Anhang/Vorgangsliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\12_Anhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552C1F85-BD56-4A50-87D3-E6E1ACFA83B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A6532-579D-4463-B039-04971A8E1EAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CD8BF150-BA51-4EA0-B710-0A49CE945C4A}"/>
   </bookViews>
@@ -2894,7 +2894,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4638,7 +4638,7 @@
         <v>43970</v>
       </c>
       <c r="K61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="25" x14ac:dyDescent="0.35">
@@ -4670,7 +4670,7 @@
         <v>43970</v>
       </c>
       <c r="K62" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
